--- a/SGP_Mitra-main/app/data/Clinical_Data/Scenario_cleaned.xlsx
+++ b/SGP_Mitra-main/app/data/Clinical_Data/Scenario_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smit\Desktop\DESKTOP\6th sem\New SGP\Mitra_Dhruvil_Branch\SGP_Mitra\SGP_Mitra-main\app\data\Clinical_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5759B65F-0DD6-4F2E-9320-3CA0E4DF9948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07226B9E-D6A0-4F5F-8ACC-1B7C3B9FC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -43,79 +43,76 @@
     <t>ImageURL</t>
   </si>
   <si>
-    <t>You're supposed to plan a fun night out with friends, but the thought of it feels more like a chore than an adventure. What do you do?</t>
+    <t>You just scored tickets to your favorite band's concert, but today the thought of putting on real pants feels like climbing Mount Everest.  Your doorbell rings with a pizza delivery you were counting on for sustenance—plus, who skips concert fuel?</t>
   </si>
   <si>
     <t xml:space="preserve"> Little interest or pleasure in doing things </t>
   </si>
   <si>
-    <t>PHQ-9 (Patient Health Questions)</t>
-  </si>
-  <si>
-    <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
-  </si>
-  <si>
-    <t>You've got a text from a friend asking to hang out, but the thought of responding feels like climbing a mountain. What do you do?</t>
+    <t>PHQ-9</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>You wake up to the smell of freshly brewed coffee downstairs, but the thought of facing another day feels like dragging yourself through thick mud. Sunlight streams through the curtains, casting playful shadows on your room.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling down, depressed, or hopeless </t>
   </si>
   <si>
-    <t>PHQ-9</t>
-  </si>
-  <si>
-    <t>You're trying to wind down for bed, but your brain decides it's the perfect time to think about everything you forgot to do today. What do you do?</t>
+    <t>Your alarm clock is flashing like a disco ball at 6 AM, signaling the start of a beautiful day with a mountain of sunshine and a perfectly brewed cup of coffee waiting. You’re nestled under the covers, pondering the allure of dreams versus the promise of that first sip.</t>
   </si>
   <si>
     <t xml:space="preserve">Trouble falling or staying asleep, or sleeping too much </t>
   </si>
   <si>
-    <t>Your alarm blares, and you've already hit snooze three times. The snooze button is calling your name like an old friend, but so is that coffee you promised yourself. What do you do?</t>
+    <t>Sunrise peeks through the curtains, casting warm stripes on your cozy bed. A notification pops up on your nightstand: "Morning jog with the park crew starts in 10 minutes!"  You could easily burrow deeper under the blankets... or maybe the promise of fresh air and a good sweat is too tempting to resist.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling tired or having little energy </t>
   </si>
   <si>
-    <t>You're standing in front of the fridge, staring at last night's leftovers. Part of you is meh, but another part is like, 'Why not?' What do you do?</t>
+    <t>You just stumbled upon a homemade batch of your grandma’s famous cookies cooling on the kitchen counter. The aroma fills the room, but as you glance at your empty stomach, your body seems to weigh the options: cozy on the couch or a dash to the fridge.</t>
   </si>
   <si>
     <t xml:space="preserve">Poor appetite or overeating </t>
   </si>
   <si>
-    <t>You've just burned the cookies you were supposed to bake for the family gathering, and now the smoke alarm is having a loud opinion about your culinary skills. What do you do next?</t>
+    <t>Your family surprises you with a spontaneous picnic in the park, complete with your favorite snacks. As you hear laughter and footsteps approaching your bedroom door, you consider whether to emerge with a warm smile or curl deeper into your blanket fort of self-doubt.</t>
   </si>
   <si>
     <t>Feeling bad about yourself — or that you are a failure or have let yourself or your family down</t>
   </si>
   <si>
-    <t>You're trying to watch your favorite show, but you've rewound the same scene three times because your mind keeps drifting off to what's for dinner. What do you do next?</t>
+    <t>You just got comfy on the couch with the Sunday paper and a steaming mug of coffee. The TV remote is within arm's reach, promising the latest binge-worthy show. Suddenly, the crossword puzzle on the first page stares back at you, looking more daunting than usual.</t>
   </si>
   <si>
     <t xml:space="preserve">Trouble concentrating on things, such as reading the newspaper or watching television </t>
   </si>
   <si>
-    <t>You're at a cozy coffee shop, and it's your turn to order. The barista is waiting, and so is the line behind you. Are you moving slower than the coffee shop Wi-Fi, or are you bouncing around like a triple-shot espresso?</t>
+    <t>You just got that text from your friend inviting you to an impromptu park picnic. As you reach for your phone, you realize you’re either slumped in your chair, barely managing to lift your fingers, or bouncing on the balls of your feet, already mentally unpacking the cooler.</t>
   </si>
   <si>
     <t xml:space="preserve"> Moving or speaking so slowly that other people could have noticed?  Or the opposite — being so fidgety or restless that you have been moving around a lot more than usual </t>
   </si>
   <si>
-    <t>You're trying to relax, but your mind keeps playing the same negative track on repeat. What do you do to change the tune?</t>
+    <t>You just woke up to a beautiful, sunny day outside your window, birds chirping merrily. On your nightstand, next to your alarm clock, is a note you wrote last night contemplating a big change, hinting at some tough thoughts. The world outside seems inviting, but your immediate urge right now is to either burrow deeper into the blankets or open the window wide and let the fresh air in, ready to face whatever comes next.</t>
   </si>
   <si>
     <t xml:space="preserve">Thoughts that you would be better off dead or of hurting yourself in some way </t>
   </si>
   <si>
-    <t>You're at a bustling coffee shop, and as you step up to order, the barista is staring at you expectantly while the line grows behind you. What do you do?</t>
+    <t>You just got an unexpected email from your boss asking if you can lead an important project meeting tomorrow. Your heart skips a beat as you glance at the clock—it's already late afternoon. The comfy couch is calling your name, but the meeting outline looms in your mind.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling nervous, anxious, or on edge  </t>
   </si>
   <si>
-    <t>GAD-7 (General Anxiety Disorder)</t>
-  </si>
-  <si>
-    <t>You're trying to enjoy a peaceful Sunday morning, but your worries are like a train that won't stop moving. What do you do next?</t>
+    <t xml:space="preserve">GAD-7 </t>
+  </si>
+  <si>
+    <t>You just remembered you left the oven on while rushing out this morning. Your heart sinks, then leaps repeatedly as you imagine worst-case scenarios alternating with quick mental checks of your smoke alarm's status. The remote is within arm's reach, beckoning you back to the comforting haze of your blanket fort.</t>
   </si>
   <si>
     <t>Not being able to stop or control worrying</t>
@@ -124,37 +121,34 @@
     <t>GAD-7</t>
   </si>
   <si>
-    <t>You're planning a casual game night, but your brain has turned it into a potential disaster movie—'What if the pizza is late? What if the board games are boring? What if someone hates the snacks?' What do you do next?</t>
+    <t>Your favorite cozy blanket is calling your name on a chilly morning, but your mind keeps buzzing with worries about upcoming deadlines, forgotten appointments, and that looming pile of bills. You hear your cheerful alarm clock singing, "Rise and shine!" but all you want to do is burrow deeper.</t>
   </si>
   <si>
     <t>Worrying too much about different things</t>
   </si>
   <si>
-    <t>You're attempting to unwind after a long day, but your mind is racing like a runaway train. What's your next move?</t>
-  </si>
-  <si>
     <t>Trouble relaxing</t>
   </si>
   <si>
-    <t>"You're in a meeting where everyone's supposed to be focused, but your leg has decided it's time to tap out its own rhythm. What do you do?"</t>
+    <t>You just got that new coffee from your favorite café, and you’re standing at the bus stop. The aroma fills your nostrils, and the sun is shining just right. Suddenly, a burst of energy makes you want to tap dance right there until the bus arrives.</t>
   </si>
   <si>
     <t xml:space="preserve">Being so restless that it is hard to sit still </t>
   </si>
   <si>
-    <t>You come home after a long day and find that your roommate has not only left the cap off the toothpaste but also squeezed it from the middle. What do you do?</t>
+    <t>You just got stuck in that slow-moving checkout line at the grocery store, right when you were in a rush to get home and relax. The person in front of you is debating between two brands of jam, taking forever to decide.</t>
   </si>
   <si>
     <t>Becoming easily annoyed or irritable</t>
   </si>
   <si>
-    <t>You're home alone and hear a strange noise that sounds like someone (or something) is in the house. What do you do?</t>
+    <t>Your friend calls inviting you to an impromptu adventure—think hiking with stunning views or trying out that new escape room. The thought sends a shiver down your spine not because of excitement, but because of a sudden wave of worry about potential mishaps along the way.</t>
   </si>
   <si>
     <t xml:space="preserve">Feeling afraid, as if something awful might happen  </t>
   </si>
   <si>
-    <t>You’ve been staring at the same TV show for 20 minutes but your brain is still running a mental marathon. What do you do next?</t>
+    <t>The clock ticks past your bedtime, but your favorite show just started its final episode.  The couch is calling, and the remote is within reach.  📺😴</t>
   </si>
   <si>
     <t xml:space="preserve">I found it hard to wind down </t>
@@ -163,311 +157,253 @@
     <t>DASS-21</t>
   </si>
   <si>
-    <t>You're about to give a big presentation and your mouth feels as dry as the Sahara Desert. What do you do next?</t>
-  </si>
-  <si>
     <t xml:space="preserve">I was aware of dryness of my mouth </t>
   </si>
   <si>
-    <t>You're at a birthday party surrounded by laughing friends, a giant cake, and enough balloons to lift a small car, but the only thing you're feeling is... well, nothing. What do you do next?</t>
+    <t>Your favorite band just announced a surprise concert tickets going live at midnight. Your room is cozy, the bed is warm, and Netflix is cued up. Suddenly, your phone buzzes with a notification about the concert.</t>
   </si>
   <si>
     <t xml:space="preserve">I couldn’t seem to experience any positive feeling at all </t>
   </si>
   <si>
-    <t>You spill coffee on your shirt before a big meeting and suddenly feel like you can't catch your breath. What's your move?</t>
+    <t>You just woke up to the most amazing news – your favorite band announced they're having a secret pop-up concert in your city this afternoon. Your room is cozy, the blankets are warm, but outside, the possibility of live music and maybe even a selfie with your idols is buzzing like a thousand excited bees.</t>
   </si>
   <si>
     <t xml:space="preserve">I experienced breathing difficulty (e.g. excessively rapid breathing, breathlessness in the absence of physical exertion) </t>
   </si>
   <si>
-    <t xml:space="preserve">DASS-21 (Depression , Anxiety and Stress Scale) </t>
-  </si>
-  <si>
-    <t>You're sitting on the couch, and your to-do list is staring at you like a judgy friend. Your phone is buzzing with texts, but the couch is way too comfy. What do you do?</t>
+    <t xml:space="preserve">DASS-21 </t>
+  </si>
+  <si>
+    <t>Your friend just called inviting you to an impromptu picnic in the park with live music. The sun is peeking through the curtains, casting warm spots on your cozy bed. You can almost smell the fresh air and hear the faint strains of music drifting on the breeze.</t>
   </si>
   <si>
     <t xml:space="preserve">I found it difficult to work up the initiative to do things </t>
   </si>
   <si>
-    <t>You've been looking forward to that last slice of pizza all day, and now it's gone—courtesy of your partner. What's your next move?</t>
+    <t>You just got a notification that your favorite coffee shop ran out of your go-to drink for the day.  The sky seems to darken a bit as you reread the message.</t>
   </si>
   <si>
     <t>I tended to over-react to situations</t>
   </si>
   <si>
-    <t>"You're trying to take a steady selfie, but your hands are shaking so much the camera slips, and now you have a photo of your ceiling instead of your face. What do you do next?"</t>
+    <t>You just received that email you've been nervously awaiting all week—think job offer or surprise adventure invite. Your hands start to fidget as you hover over the "open" button.</t>
   </si>
   <si>
     <t xml:space="preserve">I experienced trembling (e.g. in the hands) </t>
   </si>
   <si>
-    <t>Your foot is tapping like it's in a race, and your fingers are drumming a solo. What's your next move?</t>
+    <t>Your best friend just called, inviting you on a spontaneous road trip with plans to hit every quirky roadside attraction along the way. The phone buzzes with excitement, but your room suddenly feels like it's closing in around you.</t>
   </si>
   <si>
     <t>I felt that I was using a lot of nervous energy</t>
   </si>
   <si>
-    <t>You're at a party, and your mind is suddenly convinced you're about to spill your drink, trip over your own feet, or somehow turn into a human version of a viral fail video. What do you do?</t>
+    <t>You're backstage at a local open mic night, the mic stand gleaming under the hot lights. Your name is up next, and the crowd buzzes with anticipation. Suddenly, a wave of butterflies transforms into full-blown panic just thinking about stepping out there.</t>
   </si>
   <si>
     <t xml:space="preserve">I was worried about situations in which I might panic and make a fool of myself </t>
   </si>
   <si>
-    <t>You're sitting on your couch, scrolling through your calendar, and it's as empty as a desert landscape—no plans, no events, just endless nothingness. What do you do next?</t>
+    <t>Your weekend alarm goes off, and the day stretches ahead like an endless, blank page. The sun is peeking through the curtains, but your calendar is still stubbornly free of any plans or exciting events.</t>
   </si>
   <si>
     <t>I felt that I had nothing to look forward to</t>
   </si>
   <si>
-    <t>Your computer freezes right as you're about to hit send on a crucial work email, and the loading wheel is moving slower than a sloth on a Sunday stroll. What do you do next?</t>
+    <t>Your perfectly brewed coffee is calling your name, but the pile of unopened bills on your desk is starting to twitch like a caffeinated squirrel.</t>
   </si>
   <si>
     <t>I found myself getting agitated</t>
   </si>
   <si>
-    <t>You've poured yourself a glass of wine and put on your favorite playlist, but your brain is still in work mode. What do you do?</t>
-  </si>
-  <si>
     <t xml:space="preserve">I found it difficult to relax </t>
   </si>
   <si>
-    <t>It's a cozy Sunday morning, but you're feeling as flat as the soda you left out overnight. What do you do?</t>
+    <t>You just opened the curtains to a sunlit, perfectly breezy Saturday morning, and right outside is a community park hosting a spontaneous outdoor art festival with live music and colorful installations. Inside, you're wrapped in your favorite cozy blanket, feeling a bit like a cloud weighed you down overnight.</t>
   </si>
   <si>
     <t xml:space="preserve">I felt down-hearted and blue </t>
   </si>
   <si>
-    <t>You're trying to meet a tight deadline when your cat decides your keyboard is the perfect napping spot. What's your next move?</t>
+    <t>You're mid-flow crafting the perfect sourdough loaf, and suddenly, your roommate bursts in, animated about their day. They start chatting enthusiastically, but your dough is timing-sensitive!</t>
   </si>
   <si>
     <t xml:space="preserve">I was intolerant of anything that kept me from getting on with what I was doing </t>
   </si>
   <si>
-    <t>Your to-do list is longer than your favorite Netflix show's episode list, and your mind is racing faster than a caffeine high. What's your move?</t>
+    <t>You just got a surprise notification: your favorite band announced an impromptu concert tonight in town. Your heart races, but your feet feel glued to the floor. The clock ticks louder with each passing second.</t>
   </si>
   <si>
     <t>I felt I was close to panic</t>
   </si>
   <si>
-    <t>Your friend texts you about planning an epic night out, but as you stare at your phone, even the idea of pizza and a movie feels meh. What do you do? 🍕🍿</t>
+    <t>Your favorite band just announced a surprise concert tickets going live at midnight. You’re lying on the couch, scrolling through memes. The clock ticks closer to showtime...</t>
   </si>
   <si>
     <t xml:space="preserve">I was unable to become enthusiastic about anything </t>
   </si>
   <si>
-    <t>You're scrolling through social media and see someone posting about their promotion, another sharing their vacation pics, and a third bragging about their 5am workout. Suddenly, your Saturday morning in PJs doesn't feel quite as impressive. What do you do next?</t>
+    <t>You just received a surprise invitation to showcase your photography at a local gallery, something you’ve always dreamed of. Sunlight streams through your window, but your alarm clock mocks you from across the room.</t>
   </si>
   <si>
     <t>I felt I wasn’t worth much as a person</t>
   </si>
   <si>
-    <t>You're in a meeting and someone points out a tiny typo in your report. What's your next move?</t>
+    <t>You just found out your favorite café ran out of your go-to specialty drink. A line of disappointed sighs seems to follow the barista's announcement.  You glance at your empty hands.</t>
   </si>
   <si>
     <t xml:space="preserve">I felt that I was rather touchy  </t>
   </si>
   <si>
-    <t>You're sitting in a quiet room, and suddenly your heartbeat is so loud it could be mistaken for a drum solo. What do you do next?</t>
+    <t>You're chilling on the couch, scrolling through memes when suddenly, a cute notification pops up from an old friend inviting you to a spontaneous picnic in the park. Your heart skips a beat—or maybe it's just the excitement making it feel that way.</t>
   </si>
   <si>
     <t>I was aware of the action of my heart in the absence of physical exertion (e.g. sense of heart rate increase, heart missing a beat)</t>
   </si>
   <si>
-    <t>You're home alone when you hear a mysterious thud downstairs that sounds like a monster. What do you do?</t>
+    <t>You just heard a sudden loud noise downstairs, and your heart races even though logically, it's probably just the cat knocking something over. The covers feel like a warm, comforting fortress.</t>
   </si>
   <si>
     <t>I felt scared without any good reason</t>
   </si>
   <si>
-    <t>You're folding laundry and realize you've spent 20 minutes searching for matching socks, only to wonder if this is all there is to life. What do you do next?</t>
+    <t>Your favorite coffee mug fell to the floor this morning, chipped beyond repair.  You sigh, looking around your cluttered living room, debating whether to tackle the mess or crawl back under the blankets.</t>
   </si>
   <si>
     <t xml:space="preserve">I felt that life was meaningless </t>
   </si>
   <si>
-    <t>You're cruising through the grocery store when 'I Will Always Love You' starts blasting, and suddenly you're transported back to your middle school breakup. What's your move?</t>
-  </si>
-  <si>
-    <t>Any reminder brought back feelings about it,</t>
+    <t>Any reminder brought back feelings about it</t>
   </si>
   <si>
     <t>IES-R (Impact of Events Scale)</t>
   </si>
   <si>
-    <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
-  </si>
-  <si>
-    <t>You wake up at 3 AM to the sound of your cat plotting world domination and now you're wide awake. What do you do?</t>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>Your clock radio clicks on with the morning news, and the sun peeks through the curtains, casting a warm glow that somehow feels more like interrogation lights. You can either burrow deeper into your cozy blankets or leap out of bed ready to tackle the day like a caffeinated superhero.</t>
   </si>
   <si>
     <t>I had trouble staying asleep</t>
   </si>
   <si>
-    <t>You're at a party, laughing with friends, when someone mentions a word that instantly brings up *that thing* you've been trying not to think about all day. What do you do?</t>
+    <t>You just received a surprise text from an old friend inviting you to an impromptu picnic in the park. Sunlight streams through your blinds as you mull over the message, with errands and chores looming in the background.</t>
   </si>
   <si>
     <t>Other things kept making me think about it</t>
   </si>
   <si>
-    <t>You're trying to enjoy a peaceful Sunday morning, but your roommate decides it's the perfect time to practice their drum solo. What do you do?</t>
+    <t>Your morning coffee machine decides today is the perfect day to act up, spewing out lukewarm, weak brew instead of the usual energizing elixir. The kitchen clock ticks loudly, mocking your growing frustration as you stare at the malfunctioning appliance.</t>
   </si>
   <si>
     <t>I felt irritable and angry</t>
   </si>
   <si>
-    <t>You're having a great day when a song comes on that reminds you of something you'd rather forget. What's your move?</t>
+    <t>You just got an email notification about that upcoming project deadline you’ve been kinda dreading. As you see the subject line flash across your screen, you consider whether to dive into the task or reach for the nearest distraction.</t>
   </si>
   <si>
     <t>I avoided letting myself get upset when I thought about it or was reminded of it</t>
   </si>
   <si>
-    <t>You're mid-sauté, trying to perfect your signature dish, when suddenly you're mentally planning a tropical vacation instead of seasoning the veggies. What do you do next?</t>
+    <t>You’re halfway through a thrilling mystery novel, the kind where every page turn reveals a new clue, and suddenly your fridge timer dings, signaling dinner is ready. The book’s cliffhanger is killing you, but dinner could be tempting too.</t>
   </si>
   <si>
     <t>I thought about it when I didn't mean to</t>
   </si>
   <si>
-    <t>You walk into your living room and notice the furniture is rearranged. Did you actually move things around last night, or is your brain playing tricks on you? What do you do?</t>
-  </si>
-  <si>
     <t>I felt as if it hadn't happened or wasn't real</t>
   </si>
   <si>
-    <t>You're at the store and spot your ex's favorite snack on the shelf. Do you grab it, or keep walking?</t>
+    <t>Your favorite band just announced a surprise concert happening tonight, tickets go live in 10 minutes. Your phone buzzes with the notification, but you're wrapped up in a cozy blanket, scrolling through memes instead.</t>
   </si>
   <si>
     <t>I stayed away from reminders of it</t>
   </si>
   <si>
-    <t>You're mid-binge of your favorite show, and boom! Your brain starts screening a mental movie of all the stuff you were supposed to do today. What's your next move?</t>
+    <t>You just woke up to the smell of freshly baked cookies wafting from downstairs. Your eyes flutter open, and suddenly, a flood of images dances through your head – perfectly golden cookies, steamy cups of tea, maybe even a cozy blanket to curl up with while you indulge.</t>
   </si>
   <si>
     <t>Pictures about it popped into my mind</t>
   </si>
   <si>
-    <t>You're sipping your latte in a busy coffee shop when suddenly a blender roars to life behind you. How high do you jump?</t>
+    <t>The morning paper rustles loudly as it hits the doorstep, making you practically leap off the couch... or maybe just twitch a little. Your cat, confused by the sudden movement (or lack thereof), stares at you with judgmental green eyes.</t>
   </si>
   <si>
     <t>I was jumpy and easily startled</t>
   </si>
   <si>
-    <t>You're trying to relax on the couch, but your brain keeps replaying that awkward conversation from yesterday like it's on repeat. What do you do?</t>
+    <t>Your favorite coffee shop just announced a limited edition latte flavor that sounds outrageously delicious.  You wake up to the smell of rain outside.</t>
   </si>
   <si>
     <t>I tried not to think about it</t>
   </si>
   <si>
-    <t>You're scrolling through your phone for the 20th minute, avoiding that thing that's been on your mind all day. What do you do next?</t>
+    <t>You just stumbled upon an old journal from last year filled with scribbles about that big project you thought you'd forgotten. The cover creaks open to a page detailing all the unfinished reflections and emotions. Your cat nudges your hand, but your gaze lingers on those words.</t>
   </si>
   <si>
     <t>I was aware that I still had a lot of feelings about it, but I didn't deal with them</t>
   </si>
   <si>
-    <t>You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?</t>
+    <t>You just stumbled upon an unexpected flyer for a spontaneous weekend adventure — think hiking, campfires, and stargazing. As you pick it up, your eyes skim over the details, but they barely register excitement or dread. Instead, it’s like looking at a distant painting, just...there.</t>
   </si>
   <si>
     <t>My feelings about it were kind of numb</t>
   </si>
   <si>
-    <t>You're flipping through old photos on your phone and suddenly feel like you're reliving your middle school years. What's your next move?</t>
-  </si>
-  <si>
     <t>I found myself acting or feeling like I was back at that time</t>
   </si>
   <si>
-    <t>You're wide awake at midnight, and your brain is running a marathon of random thoughts. What's your next move?</t>
+    <t>The clock ticks past midnight, and your cozy bed feels like a warm hug you don’t want to leave. Outside, crickets chirp their nightly serenade, but inside, your mind is buzzing like a squirrel on espresso.  Stars peek through the window, taunting you with their peaceful slumber.</t>
   </si>
   <si>
     <t>I had trouble falling asleep</t>
   </si>
   <si>
-    <t>"You're trying to enjoy a quiet evening, but your emotions are flipping like a TV channel surfer—happy, sad, excited, annoyed, and back again. What do you do?"</t>
+    <t>You just opened your email to find an unexpected invitation to a spontaneous adventure – think hot air balloon ride or secret beach bonfire. The sun is shining, but your cozy blanket fort is whispering sweet nothings.</t>
   </si>
   <si>
     <t>I had waves of strong feelings about it</t>
   </si>
   <si>
-    <t>You’re scrolling through your social media feed when a post pops up that reminds you of that cringe moment from last week. What’s your move?</t>
+    <t>You just stumbled upon an old playlist titled "Epic Fail Moments." Curtains drawn, cozy blanket in hand, you consider whether to dive back into dreamland or hit shuffle and laugh at those cringeworthy memories instead.</t>
   </si>
   <si>
     <t>I tried to remove it from my memory</t>
   </si>
   <si>
-    <t>"You're supposed to be working, but a funny cat video just took over your screen. What's your next move?"</t>
+    <t>You just opened your favorite novel, the one with the cliffhanger ending from last night, and suddenly, your cat decides this is the perfect moment to demand belly rubs and attention. The pages flutter shut, and you’re torn between the promise of adventure and purring persuasion.</t>
   </si>
   <si>
     <t>I had trouble concentrating</t>
   </si>
   <si>
-    <t>You're chillin' on the couch when a commercial comes on that reminds you of something you're trying to forget. Suddenly, your heart is racing like you just ran a mile. What do you do?</t>
+    <t>Your friend just surprised you with tickets to a concert you’ve been dying to see all year. As you open the message, your heart starts racing, and you feel a mix of butterflies and a sudden urge to jump up and start planning your outfit. Or, alternatively, you might feel your palms sweat, and the thought makes you want to curl back under the blankets.</t>
   </si>
   <si>
     <t>Reminders of it caused me to have physical reactions such as sweating, trouble breathing, nausea, or a pounding heart</t>
   </si>
   <si>
-    <t>You wake up in a panic after dreaming you forgot a big exam, and now you're half-tempted to check your calendar... for the third time. How strongly is that dream still got you shook?</t>
+    <t>You wake up to birds chirping outside your window, and the first thing that pops into your mind are vivid scenes from last night’s incredible dream—think flying over fluffy clouds and meeting talking unicorns. Your cozy blanket suddenly feels very appealing, or maybe it’s the perfect motivation to leap out of bed to jot down those dream details before they fade away.</t>
   </si>
   <si>
     <t>I had dreams about it</t>
   </si>
   <si>
-    <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt watchful and on-guard" into a fun, engaging real-life scenario for a mental wellness app. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of feeling watchful and on-guard, and it should be suitable for a scale response.
-First, I need to understand what "felt watchful and on-guard" means. It's about feeling vigilant, maybe anxious or tense, as if something might happen and you're ready to react. So, I need a situation where someone might feel that way.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-I should think of a common situation where someone might feel the need to be watchful. Maybe something unexpected happening, like a sudden noise or an unexpected event. Or perhaps a social situation where they feel they need to be cautious.
-Let me brainstorm some ideas. Maybe something like walking alone at night and hearing a noise behind you. That could make someone feel watchful and on-guard. Or perhaps in a crowded place where someone bumps into them, making them feel the need to be vigilant.
-Wait, the example uses a relatable, everyday situation with a humorous twist. So maybe I can think of a situation that's a bit funny but still conveys the feeling.
-How about something like being in a situation where you're waiting for something to happen, and you're on edge. Maybe waiting for a surprise party, but it's taking too long, and you're getting anxious. Or maybe waiting for a delivery and being overly alert for the doorbell.
-Alternatively, maybe a scenario where you're trying to relax but can't because you're anticipating something. Like trying to watch TV but jumping at every little sound.
-Wait, the example uses a situation where the brain is wandering, so maybe something similar but related to feeling watchful. Maybe something like being in a quiet place and suddenly hearing a strange noise, making you feel on guard.
-Let me try to craft a sentence. "You're home alone on a stormy night, and every creak of the house makes you jump. What do you do?" Hmm, that's a bit too generic. Maybe add some humor.
-Alternatively, "You're trying to enjoy a peaceful evening, but every little sound makes you feel like you're in a horror movie. What's your next move?" That adds a bit of humor by referencing horror movies, which people can relate to.
-Wait, the example uses a meme, which is very relatable and modern. Maybe I can use something similar. How about a situation involving technology or everyday tech issues that cause a startle.
-Wait, maybe something like this: "You're working from home when your cat jumps onto your keyboard, and now your boss is asking why you just sent a random string of letters. What do you do?" Hmm, that's more about embarrassment than feeling watchful.
-Alternatively, "You're at a coffee shop, and someone sits down next to you with a loud conversation, making you feel like you're on high alert. What's your move?" That's more about feeling annoyed or distracted.
-Wait, perhaps a situation where you're waiting for something important, like a text message or an email, and you're constantly checking your phone, feeling on edge. "You've been waiting for an important text all day, and every buzz from your phone makes you jump. What do you do?" That captures the feeling of being watchful and on-guard.
-Alternatively, maybe a social situation where you're feeling anxious, like meeting new people. "You're at a party, and every time someone approaches, you feel like you're bracing for impact. What's your next move?" That could work, but it's a bit more about social anxiety.
-Wait, the original question is about feeling watchful and on-guard, which is more about vigilance and tension, possibly related to anxiety. So, a situation that triggers that feeling.
-How about this: "You're walking through a crowded market, and every bump from the crowd makes you feel like you're on high alert. What do you do?" That's a bit too generic, but it does capture the feeling.
-Alternatively, using a more relatable and humorous scenario: "You're trying to relax on your couch, but every little noise makes you feel like you're in a action movie, waiting for the next move. What's your next step?" That adds a bit of humor by comparing it to an action movie.
-Wait, the example used a meme, which is very current and relatable. Maybe I can use something similar. How about: "You're scrolling through your feeds when you see a post that makes you feel like you're walking on eggshells. What do you do?" Hmm, that's more about feeling cautious in a social media context.
-Alternatively, "You're playing a game where you have to wait for the perfect moment to act, and every second feels like an eternity. What's your move?" That's more about gaming and strategy, not exactly capturing the feeling of being watchful in real life.
-Wait, perhaps a situation involving waiting for something, like a delivery or a message, and being overly alert. "You've been waiting for a package all day, and every knock on the door startles you. What do you do?" That's a possibility.
-Alternatively, "You're at a busy café, and every time someone walks by, you feel like you're on guard. What's your next move?" That's more about feeling anxious in a crowded place.
-Wait, maybe something like this: "You're trying to focus on your work, but every little noise in the office makes you jump. What do you do?" That's relatable and captures the feeling of being on guard.
-Alternatively, "You're in a meeting, and every time someone looks at you, you feel like you're under a microscope. What's your next move?" That's more about feeling self-conscious.
-Wait, perhaps a scenario involving a sudden noise. "You're in a quiet library when someone's phone suddenly rings loudly. What do you do?" That's a bit too specific, but it does capture a startle response.
-Alternatively, "You're in a quiet room when you hear a strange noise behind you. What's your next move?" That's simple and effective, but maybe too straightforward.
-Wait, the example used a humorous twist with a meme. Maybe I can do something similar. How about: "You're trying to enjoy a peaceful evening when your neighbor decides to practice their drumming skills. What do you do?" That adds a bit of humor and relatability.
-Alternatively, "You're home alone when you hear a strange creaking sound. What's your next move?" That's classic, but maybe a bit too common.
-Wait, perhaps combining the idea of being watchful with a common, relatable situation. "You're waiting for a text from someone important, and every notification makes you jump. What do you do?" That captures the feeling of being on guard, waiting for something.
-Alternatively, "You're in a crowded place, and every bump makes you feel like you're in a real-life video game. What's your next move?" That adds a bit of humor by comparing it to a video game.
-Wait, the example used a meme and brain wandering, so maybe something similar. How about: "You're trying to watch your favorite show, but every little sound makes you feel like you're in a horror movie. What do you do?" That adds humor by referencing horror movies.
-Alternatively, "You're at a coffee shop, and every time someone walks by, you feel like you're on high alert. What's your move?" That's more about feeling anxious in public.
-Wait, perhaps a scenario involving technology. "You're working on your computer when it suddenly makes a strange noise. What do you do?" That's a bit too vague.
-Alternatively, "You're in a meeting, and every time someone speaks, you feel like you're bracing for impact. What's your next move?" That's more about feeling anxious in a professional setting.
-Wait, maybe something like this: "You're trying to relax, but every little sound makes you jump, like you're waiting for a surprise party that never comes. What do you do?" That adds a bit of humor by comparing it to a surprise party.
-Alternatively, "You're home alone, and every creak of the house makes you feel like you're in a suspense movie. What's your next move?" That's a bit dramatic but relatable.
-Wait, perhaps combining the idea of being watchful with a common activity. "You're cooking dinner when you hear a strange noise in the kitchen. What do you do?" That's a bit too specific.
-Alternatively, "You're trying to meditate, but every little sound breaks your concentration. What's your next move?" That's more about mindfulness and distraction.
-Wait, maybe something like this: "You're in a quiet room when you hear a sudden, loud noise. What do you do?" That's straightforward but captures the startle response.
-Alternatively, "You're at a park when a stranger approaches you, and you feel like you're on guard. What's your next move?" That's more about feeling unsafe.
-Wait, perhaps a scenario involving waiting and anticipation. "You've been waiting for an important call, and every ringtone startles you. What do you do?" That captures the feeling of being on guard.
-Alternatively</t>
+    <t>You just heard a sudden loud noise outside your window late at night. Your heart skips a beat, and you glance nervously towards the door, half-expecting something unexpected.</t>
   </si>
   <si>
     <t>I felt watchful and on-guard</t>
   </si>
   <si>
-    <t>Your friend just asked about that one thing you’ve been dodging all week, and you’re suddenly very interested in the pattern on your coffee mug. What do you do?</t>
+    <t>Your best friend bursts through the door, eyes sparkling with a story about their hilarious misadventure at the grocery store. They lean in, ready to spill the tea. You're currently perfectly cocooned in your favorite blanket, a steaming mug in hand, contemplating whether to join the tale or let the silence stretch just a tad longer.</t>
   </si>
   <si>
     <t>I tried not to talk about it</t>
   </si>
   <si>
-    <t>You're feeling so cheerful that even the usually annoying elevator music sounds like a dance track. What do you do?</t>
+    <t>Your best friend just surprised you with tickets to an outdoor concert featuring your all-time favorite band. Sunlight streams through your curtains as you hear the distant sound of laughter from the street below.</t>
   </si>
   <si>
     <t>I have felt cheerful in good spirits.</t>
@@ -476,34 +412,31 @@
     <t>WHO-5 (Well Being Index</t>
   </si>
   <si>
-    <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
-  </si>
-  <si>
-    <t>You're in a peaceful park, and even the loudest bird isn't ruining your vibe. What do you do?</t>
+    <t>0-5</t>
   </si>
   <si>
     <t xml:space="preserve">I have felt calm and relaxed. </t>
   </si>
   <si>
-    <t>You're in the middle of a Netflix binge, but suddenly you're itching to get up and do something energetic. What do you do?</t>
+    <t>Your favorite band just announced a surprise concert happening downtown tonight. Sunlight streams through your blinds.</t>
   </si>
   <si>
     <t>I have felt active and vigorous.</t>
   </si>
   <si>
-    <t>Your alarm goes off, but instead of hitting snooze, you jump out of bed like a jackrabbit on a pogo stick. What's next?</t>
+    <t>Sunrise paints your room in a warm glow, and your alarm clock whispers sweetly instead of shouting. Your cozy blanket feels like a fluffy cloud, but outside, birds are already serenading the day with their cheerful tunes.</t>
   </si>
   <si>
     <t>I woke up feeling fresh and rested.</t>
   </si>
   <si>
-    <t>You've got a weekend ahead of you, and your schedule is packed with all your favorite things—hiking, baking, and a movie marathon. How excited are you to dive in?</t>
+    <t>You just woke up to the smell of freshly brewed coffee and a notification about a last-minute tickets release for your favorite band's concert tonight. Your comfy blanket is doing its best to keep you cozy.  ☕️🎶</t>
   </si>
   <si>
     <t xml:space="preserve">My daily life has been filled with things that interest me.  </t>
   </si>
   <si>
-    <t>You've just walked in the door after a long day at work, and the thought of making dinner feels like climbing Mount Everest. What do you do?</t>
+    <t>You just clocked out after a day where every email felt like climbing a mountain. As you reach for the remote, you notice a flyer taped to your fridge for a spontaneous weekend getaway to a cozy cabin by the lake.  The door creaks softly behind you...</t>
   </si>
   <si>
     <t xml:space="preserve">I feel emotionally drained by my work. </t>
@@ -512,46 +445,47 @@
     <t>MBI-A</t>
   </si>
   <si>
-    <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
-  </si>
-  <si>
-    <t>You've been 'on' all day—pretending to be a morning person, remembering everyone's names, and nodding through another brainstorming session. What's left in your social battery?</t>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>You just clocked out after a marathon meeting filled with brainstorming sessions and team collaborations. The door swings shut behind you, and you're standing in the quiet hallway, keys jingling in your hand. The thought of heading straight home for a cozy evening versus volunteering to lead tomorrow’s workshop pops into your mind.</t>
   </si>
   <si>
     <t xml:space="preserve">Working with people all day long requires a great deal of effort. </t>
   </si>
   <si>
-    <t>Your inbox is blowing up, your phone won't stop buzzing, and you're starting to think the coffee mug that says 'World's Okayest Employee' might be lying to you. What's your move?</t>
+    <t>Your inbox overflows with meeting invites and deadlines, casting a shadow over your comfy office chair as the afternoon sun slants through the blinds, tempting you to just...stay put.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel like my work is breaking me down. </t>
   </si>
   <si>
-    <t>You've just spilled coffee all over the report you stayed up late finishing, and your boss is about to walk in for the meeting. What do you do?</t>
+    <t>Your boss just sent out a company-wide email announcing a surprise team lunch...at a cafeteria known for its questionable mystery meat.  You're staring at the email, inbox begging for attention.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel frustrated by my work. </t>
   </si>
   <si>
-    <t>It's Sunday evening, and while your friends are posting beach selfies, you're still crunching numbers like your job is a bad boyfriend who won't let you go. What do you do?</t>
+    <t>Your boss just sent out a company-wide email announcing a surprise project launch meeting—this afternoon, right after lunch. As you munch on your sandwich, visions of spreadsheets and deadlines dance before your eyes.  😴💪</t>
   </si>
   <si>
     <t>I feel I work too hard at my job.</t>
   </si>
   <si>
-    <t>"You're working as a barista on a busy morning, and the line is filled with caffeine-deprived zombies. Each customer has a complicated order, and your introvert battery is on 1%. What's your next move?"</t>
+    <t>Your inbox pings with an invitation to a surprise birthday party for a colleague. The room already buzzes with chatter and laughter as you approach the door.</t>
   </si>
   <si>
     <t xml:space="preserve">It stresses me too much to work in direct contact with people. </t>
   </si>
   <si>
-    <t>Your computer has 12 tabs open, your to-do list is longer than your patience, and you just spilled coffee on your notes. What do you do?</t>
+    <t>The weekend's over, Monday's knocking on your door, and your inbox is already looking like a mountain range. You reach for your coffee mug, which is shockingly empty, and glance at the pile of work waiting to be tackled.</t>
   </si>
   <si>
     <t>I feel like I’m at the end of my rope.</t>
   </si>
   <si>
-    <t>You're a barista on a chaotic morning shift, juggling a million orders. As the line grows, you start seeing customers as just coffee cups with legs. Then, your regular, Dave, walks in with his usual smile. What do you do?</t>
+    <t>You just clocked in at the bustling café where every customer is a puzzle piece in your day. Today, a regular walks in, their usual order in hand, but today you catch a glimpse of a worried look. Do you:
+*...reach for their usual order autopilot style, or do you perk up, ready to engage with a little extra care and attention?*</t>
   </si>
   <si>
     <t xml:space="preserve">I feel I look after certain patients/clients impersonally, as if they are objects. </t>
@@ -560,43 +494,37 @@
     <t>MBI-B</t>
   </si>
   <si>
-    <t>Your alarm is blaring, and the snooze button is calling your name like an old friend. Do you answer?</t>
+    <t>Your alarm clock sings its morning aria, but all you hear is heavy metal.  Sunlight tries to peek through the blinds, daring you to emerge from under the warm cocoon of your blankets.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel tired when I get up in the morning and have to face another day at work. </t>
   </si>
   <si>
-    <t>Your client dramatically spills their coffee all over the table, looks you dead in the eye, and declares, "This is exactly how you've ruined my life!" What do you do next?</t>
-  </si>
-  <si>
     <t xml:space="preserve">I have the impression that my patients/clients make me responsible for some of their problems. </t>
   </si>
   <si>
-    <t>Your coworker pops by your desk with 'just one more thing' as you're grabbing your jacket to leave. What's your next move?</t>
+    <t>The clock is ticking past 6 PM, and your inbox keeps pinging with "Urgent" messages, but your desk chair feels more like a cozy hammock with the sun setting outside. Your favorite show is about to start, and your couch is calling your name louder than your boss ever could.</t>
   </si>
   <si>
     <t xml:space="preserve">I am at the end of my patience at the end of my work day. </t>
   </si>
   <si>
-    <t>You're in a meeting with a client who's sharing their latest drama, but honestly, you're more invested in your post-lunch coffee break. What do you do?</t>
+    <t>You just got a notification that one of your long-term clients needs an unexpected check-in. Outside your window, the sun is casting a lazy glow, and your favorite show is about to start.  The remote is within reach.</t>
   </si>
   <si>
     <t xml:space="preserve">I really don’t care about what happens to some of my patients/clients. </t>
   </si>
   <si>
-    <t>Your coworker excitedly shares news about their new puppy, but you're too busy juggling deadlines to muster more than a distracted smile. How do you handle it?</t>
-  </si>
-  <si>
     <t xml:space="preserve">I have become more insensitive to people since I’ve been working. </t>
   </si>
   <si>
-    <t>Your coworker comes to you in a panic because they can't find their favorite pen, and honestly, you can't muster up the energy to care. What do you do?</t>
+    <t>Your team just won a big project bid, and your boss excitedly sends out a group email celebrating. You open it while still in your comfy pajamas, contemplating your next move.</t>
   </si>
   <si>
     <t xml:space="preserve">I’m afraid that this job is making me uncaring. </t>
   </si>
   <si>
-    <t>You just wrapped up a big project at work and your boss (and maybe even your cat) is impressed. How does that feel?</t>
+    <t>Your boss just emailed you a new project—one that could really make a difference in your team’s success, maybe even get you that long-awaited promotion. The email icon bounces merrily on your screen, beckoning you to open it up and dive in.</t>
   </si>
   <si>
     <t>I accomplish many worthwhile things in this job.</t>
@@ -605,46 +533,80 @@
     <t>MBI-C</t>
   </si>
   <si>
-    <t>You've just turned your living room into a dance floor, and your cat is judging you. What's your next move?</t>
+    <t>You just stumbled upon an irresistible sale announcement for your favorite outdoor gear while sipping your morning coffee.  Sunlight streams through the window, promising a perfect day ahead.</t>
   </si>
   <si>
     <t xml:space="preserve">I feel full of energy. </t>
   </si>
   <si>
-    <t>A client starts telling you about their tough day, and you can practically see the stress clouds hovering over their head. What do you do?</t>
+    <t>Your favorite coffee shop announces a surprise live acoustic performance starting in 15 minutes.  You're sprawled on the couch, halfway through a novel.  The aroma of freshly brewed coffee drifts in from downstairs.</t>
   </si>
   <si>
     <t xml:space="preserve">I am easily able to understand what my patients/clients feel. </t>
   </si>
   <si>
-    <t>Your client is on the verge of tears because they spilled coffee on their shirt right before a big meeting. What do you do?</t>
+    <t>You just received a text from your favorite patient/client expressing a sudden, complex issue they need help with right away. Sun's shining, birds are chirping, but your cozy blanket is whispering sweet nothings into your ear.</t>
   </si>
   <si>
     <t xml:space="preserve">I look after my patients’/clients’ problems very effectively. </t>
   </si>
   <si>
-    <t>Your office is buzzing like a reality TV show finale, and your coworker is dramatically freaking out over a printer jam. What's your move?</t>
+    <t>Your colleague bursts into your office, clearly frazzled after a heated meeting. They need advice on a tricky situation involving a difficult client.  The room suddenly feels a bit too warm.</t>
   </si>
   <si>
     <t xml:space="preserve">In my work, I handle emotional problems very calmly. </t>
   </si>
   <si>
-    <t>A coworker dramatically places a 'World's Best Helper' crown on your desk and says, 'You're the reason I didn't lose my mind this week!' What do you do?</t>
-  </si>
-  <si>
     <t>Through my work, I feel that I have a positive influence on people.</t>
   </si>
   <si>
-    <t>Your client walks in looking like they've just seen a ghost, and you notice they're clutching a coffee cup like it's a lifeline. What do you do to turn this into a chill chat?</t>
+    <t>You just walked into your therapy room, and the door closes behind you. Sunlight streams through the window, casting a warm glow over a plush armchair. On the table lies a vase of fresh flowers and a comforting mug of herbal tea. Your patient is settling in, looking a bit anxious.  How ready are you to diffuse any tension with a calm smile and soothing words?</t>
   </si>
   <si>
     <t>I am easily able to create a relaxed atmosphere with my patients/clients.</t>
   </si>
   <si>
-    <t>You're in a brainstorming session with a client, and their wild idea just sparked a burst of energy in you. What do you do next?</t>
+    <t>You just finished a session with your client who shared a big breakthrough moment, and the room feels electric with positive energy. Suddenly, your colleague taps you on the shoulder with an urgent request to help with a paperwork backlog that's been piling up.  💡</t>
   </si>
   <si>
     <t xml:space="preserve">I feel refreshed when I have been close to my patients/clients at work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your favorite cozy blanket is calling your name, and outside, the sun is teasing you with hints of a perfect spring day through the curtains.  A gentle breeze might just sway the trees into a soothing dance if you were to step outside.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just woke up to the irresistible aroma of freshly brewed coffee wafting through your apartment, promising a crisp, new day. However, as you stretch, you realize your mouth feels like a desert.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just got home after a long day, and the couch is calling your name louder than a late-night infomercial. A warm blanket and your favorite show are waiting, but your friend just messaged about an impromptu hike with breathtaking views.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just spotted a flyer for your old favorite band coming to town, the one that got you through your toughest times.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just woke up to discover your friend accidentally sent you a video of them winning that spontaneous karaoke contest you both attended last weekend. You're scrolling through notifications, and there it is—your friend belting out your favorite song with pure joy.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You stumble upon an old mixtape from your high school days, and as "Your Song" by Elton John starts playing, memories flood back like a wave. Suddenly, you're transported back to those carefree afternoons.  Do you:  🎧🛋️🚀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just woke up to the sun streaming through your window, casting a warm glow over your cozy bed. Beside you, your favorite book awaits, promising lazy afternoons and far-off adventures.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just received a flurry of texts from your friend detailing their latest dating drama, expecting you to not only listen but also provide a foolproof solution. Your couch beckons, complete with a cozy blanket and a tempting TV marathon.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your best friend calls, bubbling over with excitement about their weekend plans, but all you can muster is a polite "uh-huh" while secretly dreaming of that extra hour of sleep.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You just received an email from a former client thanking you for the advice that changed their career path. As you read through it, your workspace suddenly feels...  </t>
   </si>
 </sst>
 </file>
@@ -1012,21 +974,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.88671875" customWidth="1"/>
-    <col min="3" max="3" width="65.77734375" customWidth="1"/>
-    <col min="4" max="4" width="79.33203125" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
-    <col min="7" max="7" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1068,7 +1030,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1080,1606 +1042,1606 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="288" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="360" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G87" s="2"/>
     </row>
